--- a/trunk/01. Document/Plan_TRM Project v2012.04.27.xlsx
+++ b/trunk/01. Document/Plan_TRM Project v2012.04.27.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11790" windowHeight="5070" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Yêu cầu" sheetId="2" r:id="rId1"/>
-    <sheet name="Khao sat thong tin GV" sheetId="1" r:id="rId2"/>
+    <sheet name="Khao sat hệ thống" sheetId="1" r:id="rId2"/>
     <sheet name="Plan" sheetId="3" r:id="rId3"/>
     <sheet name="Thành viên - Vị trí" sheetId="4" r:id="rId4"/>
     <sheet name="Quyết toán" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Plan!$A$10:$BF$87</definedName>
-    <definedName name="MA_VI_TRI">'Thành viên - Vị trí'!$I$4:$I$12</definedName>
+    <definedName name="MA_VI_TRI">'Thành viên - Vị trí'!$T$4:$T$12</definedName>
     <definedName name="thanh_vien">'Thành viên - Vị trí'!$C$3:$C$12</definedName>
-    <definedName name="VI_TRI">'Thành viên - Vị trí'!$I$3:$I$10</definedName>
+    <definedName name="VI_TRI">'Thành viên - Vị trí'!$T$3:$T$10</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -29,7 +29,29 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0">
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Chức năng này tác động vào những bảng nào? Đọc, ghi,…???</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0">
+    <comment ref="T5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0">
+    <comment ref="T6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="140">
   <si>
     <t>GVCM</t>
   </si>
@@ -336,18 +358,6 @@
     <t>3. Viết tài liệu hướng dẫn</t>
   </si>
   <si>
-    <t>- Tạo ra các sự kiện và công việc giảng viên chuyên môn</t>
-  </si>
-  <si>
-    <t>- Tạo ra bản View cho giảng viên</t>
-  </si>
-  <si>
-    <t>- Gen ra thanh toán cho giảng viên dựa vào các sự kiện GV tham gia và công việc GV thực hiện</t>
-  </si>
-  <si>
-    <t>- Báo cáo thống kê</t>
-  </si>
-  <si>
     <t>Chỉnh sửa lại CDSL TRM.v2.0</t>
   </si>
   <si>
@@ -378,9 +388,6 @@
     <t>Nguyễn Thị Luyến</t>
   </si>
   <si>
-    <t>Vũ Hữu Khánh</t>
-  </si>
-  <si>
     <t>Vũ Quốc UY</t>
   </si>
   <si>
@@ -411,9 +418,6 @@
     <t>PRO-IE</t>
   </si>
   <si>
-    <t>Lập trình chính</t>
-  </si>
-  <si>
     <t>Test và viết tài liệu hướng dẫn</t>
   </si>
   <si>
@@ -423,9 +427,6 @@
     <t>PRO-PM</t>
   </si>
   <si>
-    <t>Quản lý dự án</t>
-  </si>
-  <si>
     <t>Tên mail</t>
   </si>
   <si>
@@ -444,9 +445,6 @@
     <t>LuyenNT</t>
   </si>
   <si>
-    <t>KhanhVH</t>
-  </si>
-  <si>
     <t>UyVQ</t>
   </si>
   <si>
@@ -520,6 +518,72 @@
   </si>
   <si>
     <t>Quản lý công việc giảng viên</t>
+  </si>
+  <si>
+    <t>Trần Văn Bình</t>
+  </si>
+  <si>
+    <t>BinhTV</t>
+  </si>
+  <si>
+    <t>Buổi 1</t>
+  </si>
+  <si>
+    <t>Buổi 2</t>
+  </si>
+  <si>
+    <t>Lập trình chức năng báo cáo</t>
+  </si>
+  <si>
+    <t>PRO-RP</t>
+  </si>
+  <si>
+    <t>Lập trình chức năng nghiệp vụ ( C# + sql)</t>
+  </si>
+  <si>
+    <t>Quản lý dự án, khảo sát + thiết kế CSDL</t>
+  </si>
+  <si>
+    <t>KhanhNH</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Khánh</t>
+  </si>
+  <si>
+    <t>Điều kiện cần</t>
+  </si>
+  <si>
+    <t>Đã học Basic Web</t>
+  </si>
+  <si>
+    <t>Đã học IPCore + lập trình SQL</t>
+  </si>
+  <si>
+    <t>Đã đọc help TRM1.0</t>
+  </si>
+  <si>
+    <t>Đã đọc Help TRM1.0</t>
+  </si>
+  <si>
+    <t>Đã chạy TRM1.0 trên máy</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Đã đọc DBDoc</t>
+  </si>
+  <si>
+    <t>CD, RP</t>
+  </si>
+  <si>
+    <t>Trình bày được 1 nghiệp vụ có liên quan đến những bảng nào?</t>
+  </si>
+  <si>
+    <t>CD, RP, TW</t>
+  </si>
+  <si>
+    <t>Làm được 1 form có chức năng view Grid, thêm, sửa, xóa dùng IPCore</t>
   </si>
 </sst>
 </file>
@@ -532,7 +596,7 @@
     <numFmt numFmtId="165" formatCode="ddd"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +684,17 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -671,7 +746,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -703,13 +778,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -788,9 +874,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -823,6 +906,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1194,7 +1294,7 @@
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1218,24 +1318,16 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
-        <v>64</v>
-      </c>
+      <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="A10" s="7"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="A11" s="7"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="A12" s="7"/>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="7"/>
@@ -1295,7 +1387,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="51" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1312,7 +1404,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="52"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1327,7 +1419,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="51" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1344,7 +1436,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="52"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1359,7 +1451,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="52"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1461,11 +1553,11 @@
   </sheetPr>
   <dimension ref="A1:CS87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="10" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1489,7 +1581,7 @@
       <c r="D1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="47" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="33" t="s">
@@ -1510,12 +1602,8 @@
         <f t="shared" ref="D2:D7" si="0">SUMIF($D$10:$D$85,C2,$E$10:$E$85)</f>
         <v>0</v>
       </c>
-      <c r="E2" s="49">
-        <v>200</v>
-      </c>
-      <c r="F2" s="50">
-        <v>299</v>
-      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="49"/>
       <c r="G2" s="17" t="s">
         <v>35</v>
       </c>
@@ -1531,12 +1619,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E3" s="49">
-        <v>800</v>
-      </c>
-      <c r="F3" s="50">
-        <v>899</v>
-      </c>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
       <c r="G3" s="17" t="s">
         <v>36</v>
       </c>
@@ -1550,12 +1634,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="49">
-        <v>100</v>
-      </c>
-      <c r="F4" s="50">
-        <v>199</v>
-      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="17"/>
       <c r="H4" s="39"/>
       <c r="I4" s="15"/>
@@ -1568,12 +1648,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="49">
-        <v>500</v>
-      </c>
-      <c r="F5" s="50">
-        <v>599</v>
-      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="17" t="s">
         <v>37</v>
       </c>
@@ -1587,12 +1663,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="49">
-        <v>300</v>
-      </c>
-      <c r="F6" s="50">
-        <v>399</v>
-      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
       <c r="H6" s="39"/>
       <c r="I6" s="15"/>
       <c r="J6" s="40"/>
@@ -1606,20 +1678,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="49">
-        <v>400</v>
-      </c>
-      <c r="F7" s="50">
-        <v>499</v>
-      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
       <c r="H7" s="39"/>
       <c r="I7" s="15"/>
       <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:97" s="34" customFormat="1">
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
       <c r="K8" s="34">
         <f>K9</f>
         <v>41030</v>
@@ -2471,13 +2539,13 @@
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2570,7 +2638,7 @@
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>53</v>
@@ -2591,7 +2659,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>48</v>
@@ -2600,7 +2668,7 @@
         <v>48</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -2691,7 +2759,7 @@
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="28" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>53</v>
@@ -2712,10 +2780,10 @@
       <c r="J13" s="22"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -2808,7 +2876,7 @@
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="28" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>53</v>
@@ -2822,13 +2890,13 @@
         <f>IFERROR( HLOOKUP("BE",K14:BE$87,$A$87-$A14+1,FALSE),0)+ IFERROR( HLOOKUP("E",K14:BE$87,$A$87-$A14+1,FALSE),0)</f>
         <v>41035</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="50" t="s">
         <v>36</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>48</v>
@@ -2843,7 +2911,7 @@
         <v>48</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -2933,7 +3001,7 @@
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="29" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -3036,7 +3104,7 @@
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="28" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -3145,7 +3213,7 @@
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="28" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -3254,7 +3322,7 @@
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="28" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -3363,7 +3431,7 @@
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="29" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -3466,7 +3534,7 @@
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="28" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
@@ -4217,7 +4285,7 @@
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="29" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
@@ -4748,7 +4816,7 @@
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="29" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
@@ -4851,7 +4919,7 @@
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="28" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -4960,7 +5028,7 @@
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="28" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -5069,7 +5137,7 @@
       </c>
       <c r="B35" s="22"/>
       <c r="C35" s="28" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -5388,7 +5456,7 @@
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="37" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -5497,7 +5565,7 @@
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="28" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -5606,7 +5674,7 @@
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -5715,7 +5783,7 @@
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -5824,7 +5892,7 @@
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="28" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -5933,7 +6001,7 @@
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="28" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -6042,7 +6110,7 @@
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="37" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -6151,7 +6219,7 @@
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="28" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -6260,7 +6328,7 @@
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="28" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
@@ -6793,7 +6861,7 @@
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="28" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -10780,221 +10848,489 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="17" width="10.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" customWidth="1"/>
+    <col min="21" max="21" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="42" t="s">
+    <row r="1" spans="1:22" ht="15.75">
+      <c r="A1" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="H1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="60">
+      <c r="A2" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="43" t="s">
+      <c r="B2" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="58"/>
+      <c r="H2" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="S2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" s="43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="T2" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="V2" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="41">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="43">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="S3" s="42">
         <v>1</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="T3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="41">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="H4" s="43">
+        <v>88</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="S4" s="42">
         <v>2</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="T4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="V4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="41">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="H5" s="43">
+        <v>89</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="S5" s="42">
         <v>3</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="T5" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="V5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="41">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="H6" s="43">
+        <v>90</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="S6" s="42">
         <v>4</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="T6" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="41">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="H7" s="43">
+        <v>91</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="S7" s="42">
         <v>5</v>
       </c>
-      <c r="I7" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="T7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="V7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="41">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="41"/>
-    </row>
-    <row r="9" spans="1:10">
+        <v>92</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="S8" s="42">
+        <v>6</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="V8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="41">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="41"/>
-    </row>
-    <row r="10" spans="1:10">
+        <v>126</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="41">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="41"/>
-    </row>
-    <row r="11" spans="1:10">
+        <v>93</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="41">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="41"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="H14" s="44"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+        <v>94</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="54">
+        <v>10</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="S14" s="43"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="T14:U14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D12">
       <formula1>VI_TRI</formula1>
     </dataValidation>
   </dataValidations>
@@ -11009,7 +11345,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/01. Document/Plan_TRM Project v2012.04.27.xlsx
+++ b/trunk/01. Document/Plan_TRM Project v2012.04.27.xlsx
@@ -795,7 +795,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -919,10 +919,6 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -10854,7 +10850,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10929,14 +10925,14 @@
       <c r="K2" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
       <c r="S2" s="42" t="s">
         <v>38</v>
       </c>
@@ -10974,12 +10970,12 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
       <c r="S3" s="42">
         <v>1</v>
       </c>
@@ -11012,12 +11008,12 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
       <c r="S4" s="42">
         <v>2</v>
       </c>
@@ -11055,12 +11051,12 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
       <c r="S5" s="42">
         <v>3</v>
       </c>
@@ -11098,12 +11094,12 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
       <c r="S6" s="42">
         <v>4</v>
       </c>
@@ -11139,12 +11135,12 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
       <c r="S7" s="42">
         <v>5</v>
       </c>
@@ -11180,12 +11176,12 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
       <c r="S8" s="42">
         <v>6</v>
       </c>
@@ -11223,12 +11219,12 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="41">
@@ -11254,12 +11250,12 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="41">
@@ -11283,12 +11279,12 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="60"/>
-      <c r="Q11" s="60"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="54">
@@ -11312,12 +11308,12 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
     <row r="14" spans="1:22">
       <c r="S14" s="43"/>
